--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Itga5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Itga5.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H2">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N2">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O2">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P2">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q2">
-        <v>2381.140981487796</v>
+        <v>2653.705335908171</v>
       </c>
       <c r="R2">
-        <v>2381.140981487796</v>
+        <v>23883.34802317354</v>
       </c>
       <c r="S2">
-        <v>0.00750281822053065</v>
+        <v>0.007638991468034714</v>
       </c>
       <c r="T2">
-        <v>0.00750281822053065</v>
+        <v>0.007638991468034712</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H3">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P3">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q3">
-        <v>2964.603243339767</v>
+        <v>3300.121247273823</v>
       </c>
       <c r="R3">
-        <v>2964.603243339767</v>
+        <v>29701.0912254644</v>
       </c>
       <c r="S3">
-        <v>0.009341269334197915</v>
+        <v>0.009499772906315308</v>
       </c>
       <c r="T3">
-        <v>0.009341269334197915</v>
+        <v>0.009499772906315306</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H4">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N4">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O4">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P4">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q4">
-        <v>2172.21331128748</v>
+        <v>2472.664419369772</v>
       </c>
       <c r="R4">
-        <v>2172.21331128748</v>
+        <v>22253.97977432795</v>
       </c>
       <c r="S4">
-        <v>0.006844500908393799</v>
+        <v>0.007117844678265483</v>
       </c>
       <c r="T4">
-        <v>0.006844500908393799</v>
+        <v>0.007117844678265481</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H5">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I5">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J5">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N5">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O5">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P5">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q5">
-        <v>1846.53716596031</v>
+        <v>2126.927776923053</v>
       </c>
       <c r="R5">
-        <v>1846.53716596031</v>
+        <v>19142.34999230748</v>
       </c>
       <c r="S5">
-        <v>0.005818316849512026</v>
+        <v>0.006122602581827674</v>
       </c>
       <c r="T5">
-        <v>0.005818316849512026</v>
+        <v>0.006122602581827672</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H6">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I6">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J6">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N6">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O6">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P6">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q6">
-        <v>342.8109669113524</v>
+        <v>400.4117043115587</v>
       </c>
       <c r="R6">
-        <v>342.8109669113524</v>
+        <v>3603.705338804028</v>
       </c>
       <c r="S6">
-        <v>0.001080174751825549</v>
+        <v>0.001152630456572696</v>
       </c>
       <c r="T6">
-        <v>0.001080174751825549</v>
+        <v>0.001152630456572696</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H7">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N7">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O7">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P7">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q7">
-        <v>58345.56707699526</v>
+        <v>58415.70580684176</v>
       </c>
       <c r="R7">
-        <v>58345.56707699526</v>
+        <v>525741.3522615759</v>
       </c>
       <c r="S7">
-        <v>0.1838430345602436</v>
+        <v>0.1681562275281688</v>
       </c>
       <c r="T7">
-        <v>0.1838430345602436</v>
+        <v>0.1681562275281688</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H8">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J8">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P8">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q8">
-        <v>72642.25794933035</v>
+        <v>72645.18381114119</v>
       </c>
       <c r="R8">
-        <v>72642.25794933035</v>
+        <v>653806.6543002708</v>
       </c>
       <c r="S8">
-        <v>0.2288909647769702</v>
+        <v>0.209117392130203</v>
       </c>
       <c r="T8">
-        <v>0.2288909647769702</v>
+        <v>0.209117392130203</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H9">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J9">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N9">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O9">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P9">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q9">
-        <v>53226.17116945171</v>
+        <v>54430.47324299764</v>
       </c>
       <c r="R9">
-        <v>53226.17116945171</v>
+        <v>489874.2591869787</v>
       </c>
       <c r="S9">
-        <v>0.1677121556278974</v>
+        <v>0.1566842840755922</v>
       </c>
       <c r="T9">
-        <v>0.1677121556278974</v>
+        <v>0.1566842840755922</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H10">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J10">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N10">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O10">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P10">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q10">
-        <v>45246.06435079082</v>
+        <v>46819.8128887647</v>
       </c>
       <c r="R10">
-        <v>45246.06435079082</v>
+        <v>421378.3159988822</v>
       </c>
       <c r="S10">
-        <v>0.1425673652495387</v>
+        <v>0.1347761359758714</v>
       </c>
       <c r="T10">
-        <v>0.1425673652495387</v>
+        <v>0.1347761359758714</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H11">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J11">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N11">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O11">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P11">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q11">
-        <v>8399.964731260256</v>
+        <v>8814.216109142842</v>
       </c>
       <c r="R11">
-        <v>8399.964731260256</v>
+        <v>79327.9449822856</v>
       </c>
       <c r="S11">
-        <v>0.02646773497558121</v>
+        <v>0.02537271970028787</v>
       </c>
       <c r="T11">
-        <v>0.02646773497558121</v>
+        <v>0.02537271970028787</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H12">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I12">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J12">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N12">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O12">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P12">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q12">
-        <v>10334.16505237993</v>
+        <v>10770.513679227</v>
       </c>
       <c r="R12">
-        <v>10334.16505237993</v>
+        <v>96934.62311304297</v>
       </c>
       <c r="S12">
-        <v>0.03256227264650294</v>
+        <v>0.03100414389972544</v>
       </c>
       <c r="T12">
-        <v>0.03256227264650294</v>
+        <v>0.03100414389972544</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H13">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I13">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J13">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N13">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O13">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P13">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q13">
-        <v>12866.39450149292</v>
+        <v>13394.10241066053</v>
       </c>
       <c r="R13">
-        <v>12866.39450149292</v>
+        <v>120546.9216959448</v>
       </c>
       <c r="S13">
-        <v>0.04054116066576598</v>
+        <v>0.03855644130963891</v>
       </c>
       <c r="T13">
-        <v>0.04054116066576598</v>
+        <v>0.0385564413096389</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H14">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I14">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J14">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N14">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O14">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P14">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q14">
-        <v>9427.417806145813</v>
+        <v>10035.7283804631</v>
       </c>
       <c r="R14">
-        <v>9427.417806145813</v>
+        <v>90321.55542416791</v>
       </c>
       <c r="S14">
-        <v>0.02970517186441882</v>
+        <v>0.02888898116777359</v>
       </c>
       <c r="T14">
-        <v>0.02970517186441882</v>
+        <v>0.02888898116777358</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H15">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I15">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J15">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N15">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O15">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P15">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q15">
-        <v>8013.981531015671</v>
+        <v>8632.497514362432</v>
       </c>
       <c r="R15">
-        <v>8013.981531015671</v>
+        <v>77692.47762926188</v>
       </c>
       <c r="S15">
-        <v>0.02525152736329429</v>
+        <v>0.02484962213691965</v>
       </c>
       <c r="T15">
-        <v>0.02525152736329429</v>
+        <v>0.02484962213691964</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H16">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I16">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J16">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N16">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O16">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P16">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q16">
-        <v>1487.801495741057</v>
+        <v>1625.138887974664</v>
       </c>
       <c r="R16">
-        <v>1487.801495741057</v>
+        <v>14626.24999177198</v>
       </c>
       <c r="S16">
-        <v>0.004687964407636218</v>
+        <v>0.004678146413479371</v>
       </c>
       <c r="T16">
-        <v>0.004687964407636218</v>
+        <v>0.00467814641347937</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H17">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I17">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J17">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N17">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O17">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P17">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q17">
-        <v>5721.46420652754</v>
+        <v>11157.74858182049</v>
       </c>
       <c r="R17">
-        <v>5721.46420652754</v>
+        <v>100419.7372363844</v>
       </c>
       <c r="S17">
-        <v>0.01802795644213677</v>
+        <v>0.03211884343965181</v>
       </c>
       <c r="T17">
-        <v>0.01802795644213677</v>
+        <v>0.03211884343965181</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H18">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I18">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J18">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N18">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O18">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P18">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q18">
-        <v>7123.421702114311</v>
+        <v>13875.66383816449</v>
       </c>
       <c r="R18">
-        <v>7123.421702114311</v>
+        <v>124880.9745434804</v>
       </c>
       <c r="S18">
-        <v>0.02244543206582942</v>
+        <v>0.03994267043849523</v>
       </c>
       <c r="T18">
-        <v>0.02244543206582942</v>
+        <v>0.03994267043849523</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H19">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I19">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J19">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N19">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O19">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P19">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q19">
-        <v>5219.447653917791</v>
+        <v>10396.54536817639</v>
       </c>
       <c r="R19">
-        <v>5219.447653917791</v>
+        <v>93568.90831358747</v>
       </c>
       <c r="S19">
-        <v>0.01644613538777191</v>
+        <v>0.02992763374662915</v>
       </c>
       <c r="T19">
-        <v>0.01644613538777191</v>
+        <v>0.02992763374662914</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H20">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I20">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J20">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N20">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O20">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P20">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q20">
-        <v>4436.904989331422</v>
+        <v>8942.863800843268</v>
       </c>
       <c r="R20">
-        <v>4436.904989331422</v>
+        <v>80485.77420758941</v>
       </c>
       <c r="S20">
-        <v>0.01398039505242532</v>
+        <v>0.02574304665633086</v>
       </c>
       <c r="T20">
-        <v>0.01398039505242532</v>
+        <v>0.02574304665633086</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H21">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I21">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J21">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N21">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O21">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P21">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q21">
-        <v>823.7146359821503</v>
+        <v>1683.567902386439</v>
       </c>
       <c r="R21">
-        <v>823.7146359821503</v>
+        <v>15152.11112147795</v>
       </c>
       <c r="S21">
-        <v>0.002595470502340067</v>
+        <v>0.004846340951334673</v>
       </c>
       <c r="T21">
-        <v>0.002595470502340067</v>
+        <v>0.004846340951334673</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H22">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I22">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J22">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N22">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O22">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P22">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q22">
-        <v>1065.596400693125</v>
+        <v>1161.866918912477</v>
       </c>
       <c r="R22">
-        <v>1065.596400693125</v>
+        <v>10456.8022702123</v>
       </c>
       <c r="S22">
-        <v>0.003357623993291148</v>
+        <v>0.003344565562900659</v>
       </c>
       <c r="T22">
-        <v>0.003357623993291148</v>
+        <v>0.003344565562900659</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H23">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I23">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J23">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N23">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O23">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P23">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q23">
-        <v>1326.704537927928</v>
+        <v>1444.886006643022</v>
       </c>
       <c r="R23">
-        <v>1326.704537927928</v>
+        <v>13003.9740597872</v>
       </c>
       <c r="S23">
-        <v>0.004180358516280225</v>
+        <v>0.004159268072335344</v>
       </c>
       <c r="T23">
-        <v>0.004180358516280225</v>
+        <v>0.004159268072335344</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H24">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I24">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J24">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N24">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O24">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P24">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q24">
-        <v>972.0981260838026</v>
+        <v>1082.602107914321</v>
       </c>
       <c r="R24">
-        <v>972.0981260838026</v>
+        <v>9743.418971228884</v>
       </c>
       <c r="S24">
-        <v>0.003063017095261664</v>
+        <v>0.003116392823924315</v>
       </c>
       <c r="T24">
-        <v>0.003063017095261664</v>
+        <v>0.003116392823924315</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H25">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I25">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J25">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N25">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O25">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P25">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q25">
-        <v>826.3531530014428</v>
+        <v>931.2288706226072</v>
       </c>
       <c r="R25">
-        <v>826.3531530014428</v>
+        <v>8381.059835603464</v>
       </c>
       <c r="S25">
-        <v>0.002603784295484377</v>
+        <v>0.002680647810145511</v>
       </c>
       <c r="T25">
-        <v>0.002603784295484377</v>
+        <v>0.002680647810145511</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H26">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I26">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J26">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N26">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O26">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P26">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q26">
-        <v>153.4130634426441</v>
+        <v>175.3115189127627</v>
       </c>
       <c r="R26">
-        <v>153.4130634426441</v>
+        <v>1577.803670214864</v>
       </c>
       <c r="S26">
-        <v>0.0004833944468696273</v>
+        <v>0.0005046540695764505</v>
       </c>
       <c r="T26">
-        <v>0.0004833944468696273</v>
+        <v>0.0005046540695764505</v>
       </c>
     </row>
   </sheetData>
